--- a/GDPdataset.xlsx
+++ b/GDPdataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sumailsyr-my.sharepoint.com/personal/ujbilgra_syr_edu/Documents/Documents/GitHub/course-project-taxes-tariffs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5B9D157-B815-474F-8D26-9F0ED0638AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{E5B9D157-B815-474F-8D26-9F0ED0638AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{744C08F3-3E06-4487-88EA-E5C62CE58A39}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="196">
   <si>
     <t>Country Name</t>
   </si>
@@ -610,111 +610,6 @@
   <si>
     <t>Zimbabwe</t>
   </si>
-  <si>
-    <t>yr1988</t>
-  </si>
-  <si>
-    <t>yr1989</t>
-  </si>
-  <si>
-    <t>yr1990</t>
-  </si>
-  <si>
-    <t>yr1991</t>
-  </si>
-  <si>
-    <t>yr1992</t>
-  </si>
-  <si>
-    <t>yr1993</t>
-  </si>
-  <si>
-    <t>yr1994</t>
-  </si>
-  <si>
-    <t>yr1995</t>
-  </si>
-  <si>
-    <t>yr1996</t>
-  </si>
-  <si>
-    <t>yr1997</t>
-  </si>
-  <si>
-    <t>yr1998</t>
-  </si>
-  <si>
-    <t>yr1999</t>
-  </si>
-  <si>
-    <t>yr2000</t>
-  </si>
-  <si>
-    <t>yr2001</t>
-  </si>
-  <si>
-    <t>yr2002</t>
-  </si>
-  <si>
-    <t>yr2003</t>
-  </si>
-  <si>
-    <t>yr2004</t>
-  </si>
-  <si>
-    <t>yr2005</t>
-  </si>
-  <si>
-    <t>yr2006</t>
-  </si>
-  <si>
-    <t>yr2007</t>
-  </si>
-  <si>
-    <t>yr2008</t>
-  </si>
-  <si>
-    <t>yr2009</t>
-  </si>
-  <si>
-    <t>yr2010</t>
-  </si>
-  <si>
-    <t>yr2011</t>
-  </si>
-  <si>
-    <t>yr2012</t>
-  </si>
-  <si>
-    <t>yr2013</t>
-  </si>
-  <si>
-    <t>yr2014</t>
-  </si>
-  <si>
-    <t>yr2015</t>
-  </si>
-  <si>
-    <t>yr2016</t>
-  </si>
-  <si>
-    <t>yr2017</t>
-  </si>
-  <si>
-    <t>yr2018</t>
-  </si>
-  <si>
-    <t>yr2019</t>
-  </si>
-  <si>
-    <t>yr2020</t>
-  </si>
-  <si>
-    <t>yr2021</t>
-  </si>
-  <si>
-    <t>yr2022</t>
-  </si>
 </sst>
 </file>
 
@@ -1074,7 +969,7 @@
   <dimension ref="A1:AK194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,110 +986,110 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F1" t="s">
-        <v>199</v>
-      </c>
-      <c r="G1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H1" t="s">
-        <v>201</v>
-      </c>
-      <c r="I1" t="s">
-        <v>202</v>
-      </c>
-      <c r="J1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" t="s">
-        <v>204</v>
-      </c>
-      <c r="L1" t="s">
-        <v>205</v>
-      </c>
-      <c r="M1" t="s">
-        <v>206</v>
-      </c>
-      <c r="N1" t="s">
-        <v>207</v>
-      </c>
-      <c r="O1" t="s">
-        <v>208</v>
-      </c>
-      <c r="P1" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S1" t="s">
-        <v>212</v>
-      </c>
-      <c r="T1" t="s">
-        <v>213</v>
-      </c>
-      <c r="U1" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" t="s">
-        <v>216</v>
-      </c>
-      <c r="X1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>230</v>
+      <c r="C1">
+        <v>1988</v>
+      </c>
+      <c r="D1">
+        <v>1989</v>
+      </c>
+      <c r="E1">
+        <v>1990</v>
+      </c>
+      <c r="F1">
+        <v>1991</v>
+      </c>
+      <c r="G1">
+        <v>1992</v>
+      </c>
+      <c r="H1">
+        <v>1993</v>
+      </c>
+      <c r="I1">
+        <v>1994</v>
+      </c>
+      <c r="J1">
+        <v>1995</v>
+      </c>
+      <c r="K1">
+        <v>1996</v>
+      </c>
+      <c r="L1">
+        <v>1997</v>
+      </c>
+      <c r="M1">
+        <v>1998</v>
+      </c>
+      <c r="N1">
+        <v>1999</v>
+      </c>
+      <c r="O1">
+        <v>2000</v>
+      </c>
+      <c r="P1">
+        <v>2001</v>
+      </c>
+      <c r="Q1">
+        <v>2002</v>
+      </c>
+      <c r="R1">
+        <v>2003</v>
+      </c>
+      <c r="S1">
+        <v>2004</v>
+      </c>
+      <c r="T1">
+        <v>2005</v>
+      </c>
+      <c r="U1">
+        <v>2006</v>
+      </c>
+      <c r="V1">
+        <v>2007</v>
+      </c>
+      <c r="W1">
+        <v>2008</v>
+      </c>
+      <c r="X1">
+        <v>2009</v>
+      </c>
+      <c r="Y1">
+        <v>2010</v>
+      </c>
+      <c r="Z1">
+        <v>2011</v>
+      </c>
+      <c r="AA1">
+        <v>2012</v>
+      </c>
+      <c r="AB1">
+        <v>2013</v>
+      </c>
+      <c r="AC1">
+        <v>2014</v>
+      </c>
+      <c r="AD1">
+        <v>2015</v>
+      </c>
+      <c r="AE1">
+        <v>2016</v>
+      </c>
+      <c r="AF1">
+        <v>2017</v>
+      </c>
+      <c r="AG1">
+        <v>2018</v>
+      </c>
+      <c r="AH1">
+        <v>2019</v>
+      </c>
+      <c r="AI1">
+        <v>2020</v>
+      </c>
+      <c r="AJ1">
+        <v>2021</v>
+      </c>
+      <c r="AK1">
+        <v>2022</v>
       </c>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
